--- a/Misc Data/past_experience_2019.xlsx
+++ b/Misc Data/past_experience_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amir/github/ceo/Misc Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B1CF99-1D35-984F-98C2-5524E223A975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936A9B34-5F0C-C243-ADC2-F9551A1C54AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="456">
   <si>
     <t>execid</t>
   </si>
@@ -1758,9 +1758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3043,7 +3043,9 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
+      <c r="AE23" s="22" t="s">
+        <v>453</v>
+      </c>
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" ht="42" customHeight="1">
@@ -5778,7 +5780,7 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
+      <c r="AE73" s="22"/>
       <c r="AF73" s="3"/>
     </row>
     <row r="74" spans="1:32" ht="27.75" customHeight="1">
@@ -6380,10 +6382,7 @@
       <c r="AF84" s="3"/>
     </row>
     <row r="85" spans="1:32" ht="12.75" customHeight="1">
-      <c r="F85" s="1">
-        <f>SUM(F2:F83)</f>
-        <v>24</v>
-      </c>
+      <c r="F85" s="1"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>

--- a/Misc Data/past_experience_2019.xlsx
+++ b/Misc Data/past_experience_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amir/github/ceo/Misc Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936A9B34-5F0C-C243-ADC2-F9551A1C54AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB14FCA2-5F44-2043-B68A-96AC964DDF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="426">
   <si>
     <t>execid</t>
   </si>
@@ -261,30 +261,6 @@
     <t>various roles,</t>
   </si>
   <si>
-    <t>00555</t>
-  </si>
-  <si>
-    <t>Leslie H. Wexner</t>
-  </si>
-  <si>
-    <t>006733</t>
-  </si>
-  <si>
-    <t>L BRANDS INC</t>
-  </si>
-  <si>
-    <t>08337</t>
-  </si>
-  <si>
-    <t>Alan B. Miller</t>
-  </si>
-  <si>
-    <t>011032</t>
-  </si>
-  <si>
-    <t>UNIVERSAL HEALTH SVCS INC</t>
-  </si>
-  <si>
     <t>46764</t>
   </si>
   <si>
@@ -297,42 +273,9 @@
     <t>ROYAL CARIBBEAN GROUP</t>
   </si>
   <si>
-    <t>55154</t>
-  </si>
-  <si>
-    <t>Lorenzo Simonelli</t>
-  </si>
-  <si>
-    <t>032106</t>
-  </si>
-  <si>
-    <t>BAKER HUGHES CO</t>
-  </si>
-  <si>
     <t>GE Transportation</t>
   </si>
   <si>
-    <t>29019</t>
-  </si>
-  <si>
-    <t>Gary R. Heminger</t>
-  </si>
-  <si>
-    <t>186989</t>
-  </si>
-  <si>
-    <t>MARATHON PETROLEUM CORP</t>
-  </si>
-  <si>
-    <t>Marthon Oil Co</t>
-  </si>
-  <si>
-    <t>007017</t>
-  </si>
-  <si>
-    <t>Exec VP: Downstream</t>
-  </si>
-  <si>
     <t>34400</t>
   </si>
   <si>
@@ -444,21 +387,6 @@
     <t>FACEBOOK INC</t>
   </si>
   <si>
-    <t>59000</t>
-  </si>
-  <si>
-    <t>John C. Plant</t>
-  </si>
-  <si>
-    <t>028192</t>
-  </si>
-  <si>
-    <t>HOWMET AEROSPACE INC</t>
-  </si>
-  <si>
-    <t>error in execid</t>
-  </si>
-  <si>
     <t>58103</t>
   </si>
   <si>
@@ -522,24 +450,6 @@
     <t>Eli Lilly</t>
   </si>
   <si>
-    <t>18569</t>
-  </si>
-  <si>
-    <t>Richard A. Gonzalez</t>
-  </si>
-  <si>
-    <t>016101</t>
-  </si>
-  <si>
-    <t>ABBVIE INC</t>
-  </si>
-  <si>
-    <t>Abbott Lab</t>
-  </si>
-  <si>
-    <t>001078</t>
-  </si>
-  <si>
     <t>42519</t>
   </si>
   <si>
@@ -822,24 +732,6 @@
     <t>NVIDIA CORP</t>
   </si>
   <si>
-    <t>34854</t>
-  </si>
-  <si>
-    <t>Ronald S. Nersesian</t>
-  </si>
-  <si>
-    <t>020232</t>
-  </si>
-  <si>
-    <t>KEYSIGHT TECHNOLOGIES INC</t>
-  </si>
-  <si>
-    <t>FIXED IN NEW VERSION</t>
-  </si>
-  <si>
-    <t>Agilent Technologies Inc</t>
-  </si>
-  <si>
     <t>48040</t>
   </si>
   <si>
@@ -1020,9 +912,6 @@
     <t>INGERSOLL RAND INC</t>
   </si>
   <si>
-    <t>Gardner Denver Holdings Inc</t>
-  </si>
-  <si>
     <t>33111</t>
   </si>
   <si>
@@ -1402,13 +1291,34 @@
   </si>
   <si>
     <t>5188</t>
+  </si>
+  <si>
+    <t>241637</t>
+  </si>
+  <si>
+    <t>063914</t>
+  </si>
+  <si>
+    <t>210418</t>
+  </si>
+  <si>
+    <t>025648</t>
+  </si>
+  <si>
+    <t>101310</t>
+  </si>
+  <si>
+    <t>030635</t>
+  </si>
+  <si>
+    <t>Ingersol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1445,8 +1355,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1457,24 +1373,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CC00"/>
-        <bgColor rgb="FF99CC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1497,7 +1395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1524,23 +1422,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,11 +1646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1000"/>
+  <dimension ref="A1:AF993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y30" sqref="Y30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1872,8 +1762,8 @@
       <c r="AD1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="22" t="s">
-        <v>451</v>
+      <c r="AE1" s="16" t="s">
+        <v>414</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>27</v>
@@ -2093,7 +1983,7 @@
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2129,13 +2019,9 @@
       <c r="Q6" s="3">
         <v>2007</v>
       </c>
-      <c r="R6" s="3">
-        <v>98.438540000000003</v>
-      </c>
+      <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3">
-        <v>1450</v>
-      </c>
+      <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
         <v>53</v>
       </c>
@@ -2148,7 +2034,9 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
+      <c r="AE6" s="16" t="s">
+        <v>415</v>
+      </c>
       <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32" ht="27.75" customHeight="1">
@@ -2202,8 +2090,8 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="22" t="s">
-        <v>452</v>
+      <c r="AE7" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="AF7" s="3"/>
     </row>
@@ -2325,7 +2213,7 @@
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2337,11 +2225,8 @@
       <c r="E10" s="5">
         <v>2019</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
       <c r="H10" s="5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
@@ -2352,7 +2237,9 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="3">
+        <v>1988</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2367,42 +2254,49 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
+      <c r="AE10" s="16" t="s">
+        <v>415</v>
+      </c>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" ht="12.75" customHeight="1">
+    <row r="11" spans="1:32" ht="42" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B11" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" s="5">
         <v>2019</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
       <c r="H11" s="5">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="O11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1995</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1996</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2421,22 +2315,25 @@
     </row>
     <row r="12" spans="1:32" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5">
         <v>2019</v>
       </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="H12" s="5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I12" s="5">
         <v>1</v>
@@ -2447,9 +2344,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="3">
-        <v>1988</v>
-      </c>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -2464,55 +2359,55 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="22" t="s">
-        <v>452</v>
-      </c>
+      <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" ht="84" customHeight="1">
+    <row r="13" spans="1:32" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E13" s="5">
         <v>2019</v>
       </c>
       <c r="H13" s="5">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I13" s="5">
         <v>1</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>8748</v>
+      </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="3">
-        <v>2008</v>
+        <v>1988</v>
       </c>
       <c r="Q13" s="3">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="U13" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -2522,53 +2417,48 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
+      <c r="AE13" s="16" t="s">
+        <v>415</v>
+      </c>
       <c r="AF13" s="3"/>
     </row>
-    <row r="14" spans="1:32" ht="13.5" customHeight="1">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E14" s="5">
         <v>2019</v>
       </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="H14" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I14" s="5">
         <v>1</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P14" s="3">
-        <v>2005</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2011</v>
-      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -2581,44 +2471,39 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
-    <row r="15" spans="1:32" ht="42" customHeight="1">
+    <row r="15" spans="1:32" ht="12.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="5">
         <v>2019</v>
       </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="H15" s="5">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1995</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1996</v>
-      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2637,16 +2522,16 @@
     </row>
     <row r="16" spans="1:32" ht="12.75" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E16" s="5">
         <v>2019</v>
@@ -2655,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="5">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I16" s="5">
         <v>1</v>
@@ -2684,51 +2569,51 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:32" ht="15.75" customHeight="1">
+    <row r="17" spans="1:32" ht="28.5" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E17" s="5">
         <v>2019</v>
       </c>
       <c r="H17" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>8748</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="13">
+        <v>7371</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="15" t="s">
+        <v>413</v>
+      </c>
       <c r="P17" s="3">
-        <v>1988</v>
+        <v>2006</v>
       </c>
       <c r="Q17" s="3">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="12" t="s">
-        <v>114</v>
+      <c r="U17" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -2739,23 +2624,21 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="22" t="s">
-        <v>452</v>
-      </c>
+      <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" ht="12.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E18" s="5">
         <v>2019</v>
@@ -2764,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -2793,43 +2676,60 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:32" ht="12.75" customHeight="1">
+    <row r="19" spans="1:32" ht="42" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="E19" s="5">
         <v>2019</v>
       </c>
-      <c r="F19" s="1">
+      <c r="H19" s="5">
         <v>1</v>
-      </c>
-      <c r="H19" s="5">
-        <v>14</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="M19" s="3">
+        <v>2082</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2012</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2018</v>
+      </c>
+      <c r="R19" s="3">
+        <v>54619</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="3">
+        <v>175000</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2842,43 +2742,50 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:32" ht="12.75" customHeight="1">
+    <row r="20" spans="1:32" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E20" s="5">
         <v>2019</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
       <c r="H20" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="O20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2006</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2014</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="U20" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2891,52 +2798,50 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" ht="28.5" customHeight="1">
+    <row r="21" spans="1:32" ht="55.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>449</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E21" s="5">
         <v>2019</v>
       </c>
       <c r="H21" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="K21" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="M21" s="13">
-        <v>7371</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="21" t="s">
-        <v>450</v>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="P21" s="3">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="Q21" s="3">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -2949,25 +2854,22 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" ht="12.75" customHeight="1">
+    <row r="22" spans="1:32" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E22" s="5">
         <v>2019</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
       <c r="H22" s="5">
         <v>9</v>
       </c>
@@ -2975,17 +2877,27 @@
         <v>1</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="O22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1989</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2010</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="U22" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -2998,38 +2910,42 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" ht="27.75" customHeight="1">
+    <row r="23" spans="1:32" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>137</v>
+        <v>144</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E23" s="5">
         <v>2019</v>
       </c>
       <c r="H23" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="3">
+        <v>2012</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -3043,23 +2959,21 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="22" t="s">
-        <v>453</v>
-      </c>
+      <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
     </row>
-    <row r="24" spans="1:32" ht="42" customHeight="1">
+    <row r="24" spans="1:32" ht="27.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E24" s="5">
         <v>2019</v>
@@ -3071,34 +2985,24 @@
         <v>1</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="15" t="s">
-        <v>145</v>
+      <c r="K24" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3">
-        <v>2082</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="3">
-        <v>2012</v>
-      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="3"/>
       <c r="Q24" s="3">
         <v>2018</v>
       </c>
-      <c r="R24" s="3">
-        <v>54619</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="T24" s="3">
-        <v>175000</v>
-      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
       <c r="U24" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -3112,50 +3016,46 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
     </row>
-    <row r="25" spans="1:32" ht="13.5" customHeight="1">
+    <row r="25" spans="1:32" ht="42" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E25" s="5">
         <v>2019</v>
       </c>
       <c r="H25" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="P25" s="3">
-        <v>2006</v>
-      </c>
+      <c r="O25" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="P25" s="3"/>
       <c r="Q25" s="3">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -3168,45 +3068,41 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
     </row>
-    <row r="26" spans="1:32" ht="55.5" customHeight="1">
+    <row r="26" spans="1:32" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E26" s="5">
         <v>2019</v>
       </c>
       <c r="H26" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1998</v>
-      </c>
+      <c r="O26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -3224,42 +3120,44 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
     </row>
-    <row r="27" spans="1:32" ht="13.5" customHeight="1">
+    <row r="27" spans="1:32" ht="27.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E27" s="5">
         <v>2019</v>
       </c>
       <c r="H27" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I27" s="5">
         <v>1</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="K27" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5122</v>
+      </c>
       <c r="N27" s="3"/>
-      <c r="O27" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="O27" s="4"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="3">
-        <v>2012</v>
-      </c>
+      <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -3273,105 +3171,132 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
+      <c r="AE27" s="16" t="s">
+        <v>415</v>
+      </c>
       <c r="AF27" s="3"/>
     </row>
-    <row r="28" spans="1:32" ht="13.5" customHeight="1">
+    <row r="28" spans="1:32" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E28" s="5">
         <v>2019</v>
       </c>
       <c r="H28" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I28" s="5">
         <v>1</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="3" t="s">
-        <v>172</v>
+      <c r="K28" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="P28" s="3">
-        <v>1989</v>
-      </c>
+      <c r="M28" s="3">
+        <v>3531</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="P28" s="3"/>
       <c r="Q28" s="3">
-        <v>2010</v>
-      </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+        <v>2018</v>
+      </c>
+      <c r="R28" s="3">
+        <f>SUM(AA28,Y28,W28)</f>
+        <v>117186</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T28" s="3">
+        <v>64645</v>
+      </c>
       <c r="U28" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="V28" s="12">
+        <v>3531</v>
+      </c>
+      <c r="W28" s="12">
+        <v>100939</v>
+      </c>
+      <c r="X28" s="12">
+        <v>5082</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>11682</v>
+      </c>
+      <c r="Z28" s="12">
+        <v>3621</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>4565</v>
+      </c>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
     </row>
-    <row r="29" spans="1:32" ht="13.5" customHeight="1">
+    <row r="29" spans="1:32" ht="55.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E29" s="5">
         <v>2019</v>
       </c>
       <c r="H29" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="5">
         <v>1</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="K29" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="6" t="s">
-        <v>176</v>
+      <c r="O29" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="U29" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -3384,48 +3309,46 @@
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:32" ht="27.75" customHeight="1">
+    <row r="30" spans="1:32" ht="55.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E30" s="5">
         <v>2019</v>
       </c>
       <c r="H30" s="5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I30" s="5">
         <v>1</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="J30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4" t="s">
-        <v>73</v>
+      <c r="O30" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -3438,43 +3361,41 @@
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
     </row>
-    <row r="31" spans="1:32" ht="42" customHeight="1">
+    <row r="31" spans="1:32" ht="55.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E31" s="5">
         <v>2019</v>
       </c>
       <c r="H31" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I31" s="5">
         <v>1</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
+      <c r="J31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="21" t="s">
-        <v>450</v>
+      <c r="O31" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -3494,39 +3415,41 @@
     </row>
     <row r="32" spans="1:32" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E32" s="5">
         <v>2019</v>
       </c>
       <c r="H32" s="5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I32" s="5">
         <v>1</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="P32" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1978</v>
+      </c>
       <c r="Q32" s="3">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -3544,18 +3467,18 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
     </row>
-    <row r="33" spans="1:32" ht="27.75" customHeight="1">
+    <row r="33" spans="1:32" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E33" s="5">
         <v>2019</v>
@@ -3566,22 +3489,22 @@
       <c r="I33" s="5">
         <v>1</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>199</v>
-      </c>
+      <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
-        <v>5122</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="O33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" s="3">
+        <v>2011</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>2014</v>
+      </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -3595,130 +3518,95 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-      <c r="AE33" s="22" t="s">
-        <v>452</v>
-      </c>
+      <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
     </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1">
+    <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E34" s="5">
         <v>2019</v>
       </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
       <c r="H34" s="5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
       </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="15" t="s">
-        <v>205</v>
-      </c>
+      <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="3">
-        <v>3531</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
       <c r="O34" s="4"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3">
-        <v>2018</v>
-      </c>
-      <c r="R34" s="3">
-        <f>SUM(AA34,Y34,W34)</f>
-        <v>117186</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="T34" s="3">
-        <v>64645</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V34" s="12">
-        <v>3531</v>
-      </c>
-      <c r="W34" s="12">
-        <v>100939</v>
-      </c>
-      <c r="X34" s="12">
-        <v>5082</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>11682</v>
-      </c>
-      <c r="Z34" s="12">
-        <v>3621</v>
-      </c>
-      <c r="AA34" s="3">
-        <v>4565</v>
-      </c>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
     </row>
-    <row r="35" spans="1:32" ht="55.5" customHeight="1">
+    <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E35" s="5">
         <v>2019</v>
       </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
       <c r="H35" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>212</v>
-      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="O35" s="4"/>
       <c r="P35" s="3"/>
-      <c r="Q35" s="3">
-        <v>2014</v>
-      </c>
+      <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -3731,41 +3619,45 @@
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
     </row>
-    <row r="36" spans="1:32" ht="55.5" customHeight="1">
+    <row r="36" spans="1:32" ht="42" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E36" s="5">
         <v>2019</v>
       </c>
       <c r="H36" s="5">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K36" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P36" s="3"/>
+      <c r="O36" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1992</v>
+      </c>
       <c r="Q36" s="3">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3783,7 +3675,7 @@
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
     </row>
-    <row r="37" spans="1:32" ht="55.5" customHeight="1">
+    <row r="37" spans="1:32" ht="27.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>218</v>
       </c>
@@ -3800,78 +3692,101 @@
         <v>2019</v>
       </c>
       <c r="H37" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="P37" s="3"/>
+      <c r="N37" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="P37" s="3">
+        <v>2008</v>
+      </c>
       <c r="Q37" s="3">
-        <v>2014</v>
-      </c>
-      <c r="R37" s="3"/>
+        <v>2013</v>
+      </c>
+      <c r="R37" s="3">
+        <f>SUM(W37,Y37,AA37)</f>
+        <v>23652</v>
+      </c>
       <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
+      <c r="T37" s="3">
+        <v>147000</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V37" s="3">
+        <v>3613</v>
+      </c>
+      <c r="W37" s="3">
+        <v>6491</v>
+      </c>
+      <c r="X37" s="3">
+        <v>8742</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>11211</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>3699</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>5950</v>
+      </c>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
     </row>
-    <row r="38" spans="1:32" ht="13.5" customHeight="1">
+    <row r="38" spans="1:32" ht="55.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E38" s="5">
         <v>2019</v>
       </c>
       <c r="H38" s="5">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I38" s="5">
         <v>1</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="J38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="4" t="s">
-        <v>227</v>
+      <c r="O38" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="P38" s="3">
-        <v>1978</v>
+        <v>2001</v>
       </c>
       <c r="Q38" s="3">
-        <v>1988</v>
+        <v>2013</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3889,7 +3804,7 @@
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
     </row>
-    <row r="39" spans="1:32" ht="13.5" customHeight="1">
+    <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>228</v>
       </c>
@@ -3905,28 +3820,23 @@
       <c r="E39" s="5">
         <v>2019</v>
       </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
       <c r="H39" s="5">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
       </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P39" s="3">
-        <v>2011</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>2014</v>
-      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -3943,39 +3853,44 @@
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
     </row>
-    <row r="40" spans="1:32" ht="12.75" customHeight="1">
+    <row r="40" spans="1:32" ht="13.5" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="E40" s="5">
         <v>2019</v>
       </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
       <c r="H40" s="5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I40" s="5">
         <v>1</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="O40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" s="3">
+        <v>2001</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>2009</v>
+      </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -3989,50 +3904,74 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
+      <c r="AE40" s="16" t="s">
+        <v>416</v>
+      </c>
       <c r="AF40" s="3"/>
     </row>
-    <row r="41" spans="1:32" ht="12.75" customHeight="1">
+    <row r="41" spans="1:32" ht="27.75" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E41" s="5">
         <v>2019</v>
       </c>
-      <c r="F41" s="1">
+      <c r="H41" s="5">
         <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>13</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
+      <c r="N41" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1987</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>2018</v>
+      </c>
+      <c r="R41" s="3">
+        <f>SUM(W41,Y41)</f>
+        <v>60482</v>
+      </c>
       <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
+      <c r="T41" s="3">
+        <v>94442</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="V41" s="3">
+        <v>2834</v>
+      </c>
+      <c r="W41" s="3">
+        <v>47290</v>
+      </c>
+      <c r="X41" s="3">
+        <v>2833</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>13192</v>
+      </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
@@ -4041,45 +3980,43 @@
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
     </row>
-    <row r="42" spans="1:32" ht="42" customHeight="1">
+    <row r="42" spans="1:32" ht="55.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E42" s="5">
         <v>2019</v>
       </c>
       <c r="H42" s="5">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>246</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="4" t="s">
-        <v>247</v>
+      <c r="O42" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="P42" s="3">
-        <v>1992</v>
+        <v>1973</v>
       </c>
       <c r="Q42" s="3">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -4097,116 +4034,89 @@
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
     </row>
-    <row r="43" spans="1:32" ht="27.75" customHeight="1">
+    <row r="43" spans="1:32" ht="12.75" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="E43" s="5">
         <v>2019</v>
       </c>
       <c r="H43" s="5">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I43" s="5">
         <v>1</v>
       </c>
       <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
-        <v>252</v>
-      </c>
+      <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="3" t="s">
-        <v>253</v>
-      </c>
+      <c r="N43" s="3"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="3">
-        <v>2008</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2013</v>
-      </c>
-      <c r="R43" s="3">
-        <f>SUM(W43,Y43,AA43)</f>
-        <v>23652</v>
-      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="3">
-        <v>147000</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V43" s="3">
-        <v>3613</v>
-      </c>
-      <c r="W43" s="3">
-        <v>6491</v>
-      </c>
-      <c r="X43" s="3">
-        <v>8742</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>11211</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>3699</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>5950</v>
-      </c>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
+      <c r="AE43" s="16" t="s">
+        <v>415</v>
+      </c>
       <c r="AF43" s="3"/>
     </row>
-    <row r="44" spans="1:32" ht="55.5" customHeight="1">
+    <row r="44" spans="1:32" ht="13.5" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E44" s="5">
         <v>2019</v>
       </c>
       <c r="H44" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I44" s="5">
         <v>1</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2001</v>
-      </c>
+      <c r="O44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P44" s="3"/>
       <c r="Q44" s="3">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
@@ -4224,39 +4134,42 @@
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
     </row>
-    <row r="45" spans="1:32" ht="12.75" customHeight="1">
+    <row r="45" spans="1:32" ht="55.5" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E45" s="5">
         <v>2019</v>
       </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
       <c r="H45" s="5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
       </c>
-      <c r="J45" s="3"/>
+      <c r="J45" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="4"/>
+      <c r="O45" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="Q45" s="3">
+        <v>1986</v>
+      </c>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
@@ -4273,52 +4186,52 @@
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
     </row>
-    <row r="46" spans="1:32" ht="42" customHeight="1">
-      <c r="A46" s="17" t="s">
+    <row r="46" spans="1:32" ht="27.75" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="D46" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="E46" s="5">
+        <v>2019</v>
+      </c>
+      <c r="H46" s="5">
+        <v>11</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E46" s="18">
-        <v>2019</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18">
-        <v>9</v>
-      </c>
-      <c r="I46" s="18">
-        <v>1</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="19">
-        <v>2002</v>
-      </c>
-      <c r="Q46" s="19">
-        <v>2014</v>
-      </c>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
+      <c r="P46" s="3">
+        <v>1990</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1998</v>
+      </c>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
@@ -4326,49 +4239,42 @@
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
-      <c r="AE46" s="22" t="s">
-        <v>453</v>
-      </c>
+      <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
     </row>
-    <row r="47" spans="1:32" ht="13.5" customHeight="1">
+    <row r="47" spans="1:32" ht="12.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="E47" s="5">
         <v>2019</v>
       </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
       <c r="H47" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I47" s="5">
         <v>1</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P47" s="3">
-        <v>2001</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>2009</v>
-      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
@@ -4382,72 +4288,50 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
-      <c r="AE47" s="22" t="s">
-        <v>453</v>
-      </c>
+      <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
     </row>
-    <row r="48" spans="1:32" ht="27.75" customHeight="1">
+    <row r="48" spans="1:32" ht="12.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="E48" s="5">
         <v>2019</v>
       </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
       <c r="H48" s="5">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I48" s="5">
         <v>1</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="3" t="s">
-        <v>276</v>
-      </c>
+      <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
-      <c r="N48" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="N48" s="3"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="3">
-        <v>1987</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2018</v>
-      </c>
-      <c r="R48" s="3">
-        <f>SUM(W48,Y48)</f>
-        <v>60482</v>
-      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="3">
-        <v>94442</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2834</v>
-      </c>
-      <c r="W48" s="3">
-        <v>47290</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2833</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>13192</v>
-      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -4456,44 +4340,39 @@
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
     </row>
-    <row r="49" spans="1:32" ht="55.5" customHeight="1">
+    <row r="49" spans="1:32" ht="12.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E49" s="5">
         <v>2019</v>
       </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
       <c r="H49" s="5">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="I49" s="5">
         <v>1</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1973</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2018</v>
-      </c>
+      <c r="O49" s="4"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
@@ -4510,90 +4389,111 @@
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
     </row>
-    <row r="50" spans="1:32" ht="12.75" customHeight="1">
+    <row r="50" spans="1:32" ht="27.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E50" s="5">
         <v>2019</v>
       </c>
       <c r="H50" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I50" s="5">
         <v>1</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="K50" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="N50" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="P50" s="3">
+        <v>2013</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>2018</v>
+      </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
+      <c r="T50" s="3">
+        <v>79000</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="V50" s="3">
+        <v>1311</v>
+      </c>
+      <c r="W50" s="3">
+        <v>334680</v>
+      </c>
+      <c r="X50" s="3">
+        <v>2911</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>9892</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>1321</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>43764</v>
+      </c>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
-      <c r="AE50" s="22" t="s">
-        <v>452</v>
-      </c>
+      <c r="AE50" s="3"/>
       <c r="AF50" s="3"/>
     </row>
-    <row r="51" spans="1:32" ht="13.5" customHeight="1">
+    <row r="51" spans="1:32" ht="12.75" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E51" s="5">
         <v>2019</v>
       </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
       <c r="H51" s="5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I51" s="5">
         <v>1</v>
       </c>
       <c r="J51" s="3"/>
-      <c r="K51" s="3" t="s">
-        <v>291</v>
-      </c>
+      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="O51" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="O51" s="4"/>
       <c r="P51" s="3"/>
-      <c r="Q51" s="3">
-        <v>2016</v>
-      </c>
+      <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
@@ -4610,41 +4510,47 @@
       <c r="AE51" s="3"/>
       <c r="AF51" s="3"/>
     </row>
-    <row r="52" spans="1:32" ht="55.5" customHeight="1">
+    <row r="52" spans="1:32" ht="27.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E52" s="5">
         <v>2019</v>
       </c>
       <c r="H52" s="5">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="I52" s="5">
         <v>1</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K52" s="3"/>
+      <c r="J52" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>425</v>
+      </c>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="M52" s="3">
+        <v>6719</v>
+      </c>
       <c r="N52" s="3"/>
-      <c r="O52" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="P52" s="3"/>
+      <c r="O52" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="P52" s="3">
+        <v>2016</v>
+      </c>
       <c r="Q52" s="3">
-        <v>1986</v>
+        <v>2016</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4659,53 +4565,46 @@
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
+      <c r="AE52" s="16"/>
       <c r="AF52" s="3"/>
     </row>
-    <row r="53" spans="1:32" ht="27.75" customHeight="1">
+    <row r="53" spans="1:32" ht="12.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E53" s="5">
         <v>2019</v>
       </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
       <c r="H53" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I53" s="5">
         <v>1</v>
       </c>
       <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
-        <v>300</v>
-      </c>
+      <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="P53" s="3">
-        <v>1990</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>1998</v>
-      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-      <c r="U53" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
@@ -4720,16 +4619,16 @@
     </row>
     <row r="54" spans="1:32" ht="12.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E54" s="5">
         <v>2019</v>
@@ -4738,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="5">
         <v>1</v>
@@ -4767,39 +4666,46 @@
       <c r="AE54" s="3"/>
       <c r="AF54" s="3"/>
     </row>
-    <row r="55" spans="1:32" ht="12.75" customHeight="1">
+    <row r="55" spans="1:32" ht="55.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E55" s="5">
         <v>2019</v>
       </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
       <c r="H55" s="5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I55" s="5">
         <v>1</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="J55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+      <c r="O55" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P55" s="3">
+        <v>2001</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>2003</v>
+      </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
@@ -4818,16 +4724,16 @@
     </row>
     <row r="56" spans="1:32" ht="12.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E56" s="5">
         <v>2019</v>
@@ -4836,7 +4742,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I56" s="5">
         <v>1</v>
@@ -4865,72 +4771,49 @@
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
     </row>
-    <row r="57" spans="1:32" ht="27.75" customHeight="1">
+    <row r="57" spans="1:32" ht="12.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E57" s="5">
         <v>2019</v>
       </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
       <c r="H57" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I57" s="5">
         <v>1</v>
       </c>
       <c r="J57" s="3"/>
-      <c r="K57" s="3" t="s">
-        <v>318</v>
-      </c>
+      <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
-      <c r="N57" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2013</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2018</v>
-      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="3">
-        <v>79000</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1311</v>
-      </c>
-      <c r="W57" s="3">
-        <v>334680</v>
-      </c>
-      <c r="X57" s="3">
-        <v>2911</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>9892</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>1321</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>43764</v>
-      </c>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
@@ -4939,16 +4822,16 @@
     </row>
     <row r="58" spans="1:32" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E58" s="5">
         <v>2019</v>
@@ -4957,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I58" s="5">
         <v>1</v>
@@ -4986,55 +4869,42 @@
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:32" ht="27.75" customHeight="1">
+    <row r="59" spans="1:32" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E59" s="5">
         <v>2019</v>
       </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
       <c r="H59" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I59" s="5">
         <v>1</v>
       </c>
       <c r="J59" s="3"/>
-      <c r="K59" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1</v>
-      </c>
-      <c r="M59" s="3">
-        <v>6719</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
       <c r="O59" s="4"/>
-      <c r="P59" s="3">
-        <v>2016</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2020</v>
-      </c>
-      <c r="R59" s="3">
-        <v>10.5</v>
-      </c>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
       <c r="S59" s="3"/>
-      <c r="T59" s="3">
-        <v>3</v>
-      </c>
+      <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -5050,16 +4920,16 @@
     </row>
     <row r="60" spans="1:32" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E60" s="5">
         <v>2019</v>
@@ -5068,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I60" s="5">
         <v>1</v>
@@ -5097,25 +4967,22 @@
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
     </row>
-    <row r="61" spans="1:32" ht="12.75" customHeight="1">
+    <row r="61" spans="1:32" ht="13.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E61" s="5">
         <v>2019</v>
       </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
       <c r="H61" s="5">
         <v>13</v>
       </c>
@@ -5123,13 +4990,21 @@
         <v>1</v>
       </c>
       <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="K61" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
+      <c r="O61" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="P61" s="3">
+        <v>1983</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1998</v>
+      </c>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
@@ -5148,48 +5023,50 @@
     </row>
     <row r="62" spans="1:32" ht="55.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E62" s="5">
         <v>2019</v>
       </c>
       <c r="H62" s="5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>341</v>
+        <v>136</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P62" s="3">
+        <v>1994</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2001</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>2003</v>
       </c>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
+      <c r="U62" s="3" t="s">
+        <v>335</v>
+      </c>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
@@ -5202,43 +5079,50 @@
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
     </row>
-    <row r="63" spans="1:32" ht="12.75" customHeight="1">
+    <row r="63" spans="1:32" ht="27.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E63" s="5">
         <v>2019</v>
       </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
       <c r="H63" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I63" s="5">
         <v>1</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="K63" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
+      <c r="O63" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="P63" s="3">
+        <v>1993</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>2008</v>
+      </c>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
+      <c r="U63" s="3" t="s">
+        <v>342</v>
+      </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
@@ -5251,43 +5135,52 @@
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
     </row>
-    <row r="64" spans="1:32" ht="12.75" customHeight="1">
+    <row r="64" spans="1:32" ht="55.5" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="E64" s="5">
         <v>2019</v>
       </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
       <c r="H64" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I64" s="5">
         <v>1</v>
       </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="J64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="O64" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P64" s="3">
+        <v>2004</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>2014</v>
+      </c>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
+      <c r="U64" s="3" t="s">
+        <v>347</v>
+      </c>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
@@ -5300,39 +5193,44 @@
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
     </row>
-    <row r="65" spans="1:32" ht="12.75" customHeight="1">
+    <row r="65" spans="1:32" ht="27.75" customHeight="1">
       <c r="A65" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="E65" s="5">
         <v>2019</v>
       </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
       <c r="H65" s="5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I65" s="5">
         <v>1</v>
       </c>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="K65" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
+      <c r="O65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P65" s="3">
+        <v>1998</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>2003</v>
+      </c>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
@@ -5349,39 +5247,46 @@
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
     </row>
-    <row r="66" spans="1:32" ht="12.75" customHeight="1">
+    <row r="66" spans="1:32" ht="55.5" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="E66" s="5">
         <v>2019</v>
       </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
       <c r="H66" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I66" s="5">
         <v>1</v>
       </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="J66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
+      <c r="O66" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1997</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>2002</v>
+      </c>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
@@ -5395,48 +5300,65 @@
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
       <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
+      <c r="AE66" s="16"/>
       <c r="AF66" s="3"/>
     </row>
-    <row r="67" spans="1:32" ht="12.75" customHeight="1">
+    <row r="67" spans="1:32" ht="27.75" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="E67" s="5">
         <v>2019</v>
       </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
       <c r="H67" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I67" s="5">
         <v>1</v>
       </c>
       <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
+      <c r="N67" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="P67" s="3">
+        <v>2003</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>2014</v>
+      </c>
+      <c r="R67" s="3">
+        <v>52200</v>
+      </c>
       <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
+      <c r="T67" s="3">
+        <v>117809</v>
+      </c>
+      <c r="U67" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="V67" s="3">
+        <v>2834</v>
+      </c>
+      <c r="W67" s="3">
+        <v>52200</v>
+      </c>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
@@ -5447,43 +5369,43 @@
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
     </row>
-    <row r="68" spans="1:32" ht="13.5" customHeight="1">
+    <row r="68" spans="1:32" ht="42" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E68" s="5">
         <v>2019</v>
       </c>
       <c r="H68" s="5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I68" s="5">
         <v>1</v>
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P68" s="3">
-        <v>1983</v>
+        <v>1991</v>
       </c>
       <c r="Q68" s="3">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
@@ -5501,51 +5423,49 @@
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
     </row>
-    <row r="69" spans="1:32" ht="55.5" customHeight="1">
+    <row r="69" spans="1:32" ht="27.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E69" s="5">
         <v>2019</v>
       </c>
       <c r="H69" s="5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I69" s="5">
         <v>1</v>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>371</v>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="1" t="s">
-        <v>370</v>
+      <c r="O69" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="P69" s="3">
-        <v>1994</v>
+        <v>2011</v>
       </c>
       <c r="Q69" s="3">
-        <v>2001</v>
+        <v>2015</v>
       </c>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -5559,32 +5479,32 @@
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
     </row>
-    <row r="70" spans="1:32" ht="27.75" customHeight="1">
+    <row r="70" spans="1:32" ht="55.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E70" s="5">
         <v>2019</v>
       </c>
       <c r="H70" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I70" s="5">
         <v>1</v>
       </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3" t="s">
-        <v>377</v>
-      </c>
+      <c r="J70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -5592,16 +5512,16 @@
         <v>378</v>
       </c>
       <c r="P70" s="3">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="Q70" s="3">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -5615,51 +5535,49 @@
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
     </row>
-    <row r="71" spans="1:32" ht="55.5" customHeight="1">
+    <row r="71" spans="1:32" ht="13.5" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E71" s="5">
         <v>2019</v>
       </c>
       <c r="H71" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I71" s="5">
         <v>1</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>383</v>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="O71" s="1" t="s">
-        <v>382</v>
+      <c r="O71" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="P71" s="3">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="Q71" s="3">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3" t="s">
-        <v>384</v>
+        <v>95</v>
       </c>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
@@ -5673,7 +5591,7 @@
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
     </row>
-    <row r="72" spans="1:32" ht="27.75" customHeight="1">
+    <row r="72" spans="1:32" ht="13.5" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>385</v>
       </c>
@@ -5690,7 +5608,7 @@
         <v>2019</v>
       </c>
       <c r="H72" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I72" s="5">
         <v>1</v>
@@ -5703,18 +5621,20 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="4" t="s">
-        <v>73</v>
+        <v>390</v>
       </c>
       <c r="P72" s="3">
-        <v>1998</v>
+        <v>2010</v>
       </c>
       <c r="Q72" s="3">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
+      <c r="U72" s="3" t="s">
+        <v>391</v>
+      </c>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
@@ -5727,45 +5647,44 @@
       <c r="AE72" s="3"/>
       <c r="AF72" s="3"/>
     </row>
-    <row r="73" spans="1:32" ht="55.5" customHeight="1">
+    <row r="73" spans="1:32" ht="27.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E73" s="5">
         <v>2019</v>
       </c>
+      <c r="F73" s="1"/>
       <c r="H73" s="5">
         <v>13</v>
       </c>
       <c r="I73" s="5">
         <v>1</v>
       </c>
-      <c r="J73" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>393</v>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3" t="s">
+        <v>396</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="O73" s="21" t="s">
-        <v>455</v>
+      <c r="O73" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="P73" s="3">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="Q73" s="3">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
@@ -5780,62 +5699,64 @@
       <c r="AB73" s="3"/>
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
-      <c r="AE73" s="22"/>
+      <c r="AE73" s="3"/>
       <c r="AF73" s="3"/>
     </row>
     <row r="74" spans="1:32" ht="27.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E74" s="5">
         <v>2019</v>
       </c>
       <c r="H74" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I74" s="5">
         <v>1</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="O74" s="4"/>
+      <c r="M74" s="3">
+        <v>6798</v>
+      </c>
+      <c r="N74" s="3"/>
+      <c r="O74" s="15" t="s">
+        <v>424</v>
+      </c>
       <c r="P74" s="3">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="Q74" s="3">
-        <v>2014</v>
+        <v>1997</v>
       </c>
       <c r="R74" s="3">
-        <v>52200</v>
+        <v>93</v>
       </c>
       <c r="S74" s="3"/>
       <c r="T74" s="3">
-        <v>117809</v>
+        <v>546</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="V74" s="3">
-        <v>2834</v>
+        <v>6798</v>
       </c>
       <c r="W74" s="3">
-        <v>52200</v>
+        <v>93</v>
       </c>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
@@ -5847,43 +5768,45 @@
       <c r="AE74" s="3"/>
       <c r="AF74" s="3"/>
     </row>
-    <row r="75" spans="1:32" ht="42" customHeight="1">
+    <row r="75" spans="1:32" ht="55.5" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E75" s="5">
         <v>2019</v>
       </c>
       <c r="H75" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I75" s="5">
         <v>1</v>
       </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3" t="s">
-        <v>404</v>
+      <c r="J75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="4" t="s">
-        <v>405</v>
+      <c r="O75" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="P75" s="3">
-        <v>1991</v>
+        <v>1976</v>
       </c>
       <c r="Q75" s="3">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
@@ -5901,50 +5824,48 @@
       <c r="AE75" s="3"/>
       <c r="AF75" s="3"/>
     </row>
-    <row r="76" spans="1:32" ht="27.75" customHeight="1">
+    <row r="76" spans="1:32" ht="55.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E76" s="5">
         <v>2019</v>
       </c>
       <c r="H76" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I76" s="5">
         <v>1</v>
       </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3" t="s">
-        <v>410</v>
-      </c>
+      <c r="J76" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="4" t="s">
-        <v>411</v>
+      <c r="O76" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="P76" s="3">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="Q76" s="3">
-        <v>2015</v>
+        <v>2003</v>
       </c>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
-      <c r="U76" s="3" t="s">
-        <v>412</v>
-      </c>
+      <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
@@ -5957,50 +5878,19 @@
       <c r="AE76" s="3"/>
       <c r="AF76" s="3"/>
     </row>
-    <row r="77" spans="1:32" ht="55.5" customHeight="1">
-      <c r="A77" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E77" s="5">
-        <v>2019</v>
-      </c>
-      <c r="H77" s="5">
-        <v>13</v>
-      </c>
-      <c r="I77" s="5">
-        <v>1</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>160</v>
-      </c>
+    <row r="77" spans="1:32" ht="12.75" customHeight="1">
+      <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="P77" s="3">
-        <v>1998</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>2004</v>
-      </c>
+      <c r="O77" s="4"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
-      <c r="U77" s="3" t="s">
-        <v>417</v>
-      </c>
+      <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
@@ -6013,50 +5903,20 @@
       <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
     </row>
-    <row r="78" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A78" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E78" s="5">
-        <v>2019</v>
-      </c>
-      <c r="H78" s="5">
-        <v>7</v>
-      </c>
-      <c r="I78" s="5">
-        <v>1</v>
-      </c>
+    <row r="78" spans="1:32" ht="12.75" customHeight="1">
+      <c r="F78" s="1"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="P78" s="3">
-        <v>1987</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>2011</v>
-      </c>
+      <c r="O78" s="4"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
-      <c r="U78" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
@@ -6069,50 +5929,19 @@
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
     </row>
-    <row r="79" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E79" s="5">
-        <v>2019</v>
-      </c>
-      <c r="H79" s="5">
-        <v>9</v>
-      </c>
-      <c r="I79" s="5">
-        <v>1</v>
-      </c>
+    <row r="79" spans="1:32" ht="12.75" customHeight="1">
       <c r="J79" s="3"/>
-      <c r="K79" s="3" t="s">
-        <v>426</v>
-      </c>
+      <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="O79" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="P79" s="3">
-        <v>2010</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>2011</v>
-      </c>
+      <c r="O79" s="4"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
-      <c r="U79" s="3" t="s">
-        <v>428</v>
-      </c>
+      <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
@@ -6125,47 +5954,15 @@
       <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
     </row>
-    <row r="80" spans="1:32" ht="27.75" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E80" s="5">
-        <v>2019</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1</v>
-      </c>
-      <c r="H80" s="5">
-        <v>13</v>
-      </c>
-      <c r="I80" s="5">
-        <v>1</v>
-      </c>
+    <row r="80" spans="1:32" ht="12.75" customHeight="1">
       <c r="J80" s="3"/>
-      <c r="K80" s="3" t="s">
-        <v>433</v>
-      </c>
+      <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="O80" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="P80" s="3">
-        <v>1992</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>2000</v>
-      </c>
+      <c r="O80" s="4"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
@@ -6182,60 +5979,21 @@
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
     </row>
-    <row r="81" spans="1:32" ht="27.75" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E81" s="5">
-        <v>2019</v>
-      </c>
-      <c r="H81" s="5">
-        <v>13</v>
-      </c>
-      <c r="I81" s="5">
-        <v>1</v>
-      </c>
+    <row r="81" spans="10:32" ht="12.75" customHeight="1">
       <c r="J81" s="3"/>
-      <c r="K81" s="3" t="s">
-        <v>439</v>
-      </c>
+      <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="3">
-        <v>6798</v>
-      </c>
+      <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="3">
-        <v>1997</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1998</v>
-      </c>
-      <c r="R81" s="3">
-        <v>93</v>
-      </c>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
       <c r="S81" s="3"/>
-      <c r="T81" s="3">
-        <v>546</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="V81" s="3">
-        <v>6798</v>
-      </c>
-      <c r="W81" s="3">
-        <v>93</v>
-      </c>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
@@ -6246,46 +6004,15 @@
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
     </row>
-    <row r="82" spans="1:32" ht="55.5" customHeight="1">
-      <c r="A82" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E82" s="5">
-        <v>2019</v>
-      </c>
-      <c r="H82" s="5">
-        <v>18</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>444</v>
-      </c>
+    <row r="82" spans="10:32" ht="12.75" customHeight="1">
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="P82" s="3">
-        <v>1976</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>1993</v>
-      </c>
+      <c r="O82" s="4"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -6302,44 +6029,15 @@
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
     </row>
-    <row r="83" spans="1:32" ht="55.5" customHeight="1">
-      <c r="A83" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E83" s="5">
-        <v>2019</v>
-      </c>
-      <c r="H83" s="5">
-        <v>14</v>
-      </c>
-      <c r="I83" s="5">
-        <v>1</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>160</v>
-      </c>
+    <row r="83" spans="10:32" ht="12.75" customHeight="1">
+      <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-      <c r="O83" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1998</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>2003</v>
-      </c>
+      <c r="O83" s="4"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
@@ -6356,7 +6054,7 @@
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
     </row>
-    <row r="84" spans="1:32" ht="12.75" customHeight="1">
+    <row r="84" spans="10:32" ht="12.75" customHeight="1">
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
@@ -6381,8 +6079,7 @@
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
     </row>
-    <row r="85" spans="1:32" ht="12.75" customHeight="1">
-      <c r="F85" s="1"/>
+    <row r="85" spans="10:32" ht="12.75" customHeight="1">
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -6407,7 +6104,7 @@
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
     </row>
-    <row r="86" spans="1:32" ht="12.75" customHeight="1">
+    <row r="86" spans="10:32" ht="12.75" customHeight="1">
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -6432,7 +6129,7 @@
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
     </row>
-    <row r="87" spans="1:32" ht="12.75" customHeight="1">
+    <row r="87" spans="10:32" ht="12.75" customHeight="1">
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -6457,7 +6154,7 @@
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
     </row>
-    <row r="88" spans="1:32" ht="12.75" customHeight="1">
+    <row r="88" spans="10:32" ht="12.75" customHeight="1">
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -6482,7 +6179,7 @@
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
     </row>
-    <row r="89" spans="1:32" ht="12.75" customHeight="1">
+    <row r="89" spans="10:32" ht="12.75" customHeight="1">
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -6507,7 +6204,7 @@
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
     </row>
-    <row r="90" spans="1:32" ht="12.75" customHeight="1">
+    <row r="90" spans="10:32" ht="12.75" customHeight="1">
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -6532,7 +6229,7 @@
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
     </row>
-    <row r="91" spans="1:32" ht="12.75" customHeight="1">
+    <row r="91" spans="10:32" ht="12.75" customHeight="1">
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -6557,7 +6254,7 @@
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
     </row>
-    <row r="92" spans="1:32" ht="12.75" customHeight="1">
+    <row r="92" spans="10:32" ht="12.75" customHeight="1">
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -6582,7 +6279,7 @@
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
     </row>
-    <row r="93" spans="1:32" ht="12.75" customHeight="1">
+    <row r="93" spans="10:32" ht="12.75" customHeight="1">
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -6607,7 +6304,7 @@
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
     </row>
-    <row r="94" spans="1:32" ht="12.75" customHeight="1">
+    <row r="94" spans="10:32" ht="12.75" customHeight="1">
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -6632,7 +6329,7 @@
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
     </row>
-    <row r="95" spans="1:32" ht="12.75" customHeight="1">
+    <row r="95" spans="10:32" ht="12.75" customHeight="1">
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -6657,7 +6354,7 @@
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
     </row>
-    <row r="96" spans="1:32" ht="12.75" customHeight="1">
+    <row r="96" spans="10:32" ht="12.75" customHeight="1">
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -29107,181 +28804,6 @@
       <c r="AE993" s="3"/>
       <c r="AF993" s="3"/>
     </row>
-    <row r="994" spans="10:32" ht="12.75" customHeight="1">
-      <c r="J994" s="3"/>
-      <c r="K994" s="3"/>
-      <c r="L994" s="3"/>
-      <c r="M994" s="3"/>
-      <c r="N994" s="3"/>
-      <c r="O994" s="4"/>
-      <c r="P994" s="3"/>
-      <c r="Q994" s="3"/>
-      <c r="R994" s="3"/>
-      <c r="S994" s="3"/>
-      <c r="T994" s="3"/>
-      <c r="U994" s="3"/>
-      <c r="V994" s="3"/>
-      <c r="W994" s="3"/>
-      <c r="X994" s="3"/>
-      <c r="Y994" s="3"/>
-      <c r="Z994" s="3"/>
-      <c r="AA994" s="3"/>
-      <c r="AB994" s="3"/>
-      <c r="AC994" s="3"/>
-      <c r="AD994" s="3"/>
-      <c r="AE994" s="3"/>
-      <c r="AF994" s="3"/>
-    </row>
-    <row r="995" spans="10:32" ht="12.75" customHeight="1">
-      <c r="J995" s="3"/>
-      <c r="K995" s="3"/>
-      <c r="L995" s="3"/>
-      <c r="M995" s="3"/>
-      <c r="N995" s="3"/>
-      <c r="O995" s="4"/>
-      <c r="P995" s="3"/>
-      <c r="Q995" s="3"/>
-      <c r="R995" s="3"/>
-      <c r="S995" s="3"/>
-      <c r="T995" s="3"/>
-      <c r="U995" s="3"/>
-      <c r="V995" s="3"/>
-      <c r="W995" s="3"/>
-      <c r="X995" s="3"/>
-      <c r="Y995" s="3"/>
-      <c r="Z995" s="3"/>
-      <c r="AA995" s="3"/>
-      <c r="AB995" s="3"/>
-      <c r="AC995" s="3"/>
-      <c r="AD995" s="3"/>
-      <c r="AE995" s="3"/>
-      <c r="AF995" s="3"/>
-    </row>
-    <row r="996" spans="10:32" ht="12.75" customHeight="1">
-      <c r="J996" s="3"/>
-      <c r="K996" s="3"/>
-      <c r="L996" s="3"/>
-      <c r="M996" s="3"/>
-      <c r="N996" s="3"/>
-      <c r="O996" s="4"/>
-      <c r="P996" s="3"/>
-      <c r="Q996" s="3"/>
-      <c r="R996" s="3"/>
-      <c r="S996" s="3"/>
-      <c r="T996" s="3"/>
-      <c r="U996" s="3"/>
-      <c r="V996" s="3"/>
-      <c r="W996" s="3"/>
-      <c r="X996" s="3"/>
-      <c r="Y996" s="3"/>
-      <c r="Z996" s="3"/>
-      <c r="AA996" s="3"/>
-      <c r="AB996" s="3"/>
-      <c r="AC996" s="3"/>
-      <c r="AD996" s="3"/>
-      <c r="AE996" s="3"/>
-      <c r="AF996" s="3"/>
-    </row>
-    <row r="997" spans="10:32" ht="12.75" customHeight="1">
-      <c r="J997" s="3"/>
-      <c r="K997" s="3"/>
-      <c r="L997" s="3"/>
-      <c r="M997" s="3"/>
-      <c r="N997" s="3"/>
-      <c r="O997" s="4"/>
-      <c r="P997" s="3"/>
-      <c r="Q997" s="3"/>
-      <c r="R997" s="3"/>
-      <c r="S997" s="3"/>
-      <c r="T997" s="3"/>
-      <c r="U997" s="3"/>
-      <c r="V997" s="3"/>
-      <c r="W997" s="3"/>
-      <c r="X997" s="3"/>
-      <c r="Y997" s="3"/>
-      <c r="Z997" s="3"/>
-      <c r="AA997" s="3"/>
-      <c r="AB997" s="3"/>
-      <c r="AC997" s="3"/>
-      <c r="AD997" s="3"/>
-      <c r="AE997" s="3"/>
-      <c r="AF997" s="3"/>
-    </row>
-    <row r="998" spans="10:32" ht="12.75" customHeight="1">
-      <c r="J998" s="3"/>
-      <c r="K998" s="3"/>
-      <c r="L998" s="3"/>
-      <c r="M998" s="3"/>
-      <c r="N998" s="3"/>
-      <c r="O998" s="4"/>
-      <c r="P998" s="3"/>
-      <c r="Q998" s="3"/>
-      <c r="R998" s="3"/>
-      <c r="S998" s="3"/>
-      <c r="T998" s="3"/>
-      <c r="U998" s="3"/>
-      <c r="V998" s="3"/>
-      <c r="W998" s="3"/>
-      <c r="X998" s="3"/>
-      <c r="Y998" s="3"/>
-      <c r="Z998" s="3"/>
-      <c r="AA998" s="3"/>
-      <c r="AB998" s="3"/>
-      <c r="AC998" s="3"/>
-      <c r="AD998" s="3"/>
-      <c r="AE998" s="3"/>
-      <c r="AF998" s="3"/>
-    </row>
-    <row r="999" spans="10:32" ht="12.75" customHeight="1">
-      <c r="J999" s="3"/>
-      <c r="K999" s="3"/>
-      <c r="L999" s="3"/>
-      <c r="M999" s="3"/>
-      <c r="N999" s="3"/>
-      <c r="O999" s="4"/>
-      <c r="P999" s="3"/>
-      <c r="Q999" s="3"/>
-      <c r="R999" s="3"/>
-      <c r="S999" s="3"/>
-      <c r="T999" s="3"/>
-      <c r="U999" s="3"/>
-      <c r="V999" s="3"/>
-      <c r="W999" s="3"/>
-      <c r="X999" s="3"/>
-      <c r="Y999" s="3"/>
-      <c r="Z999" s="3"/>
-      <c r="AA999" s="3"/>
-      <c r="AB999" s="3"/>
-      <c r="AC999" s="3"/>
-      <c r="AD999" s="3"/>
-      <c r="AE999" s="3"/>
-      <c r="AF999" s="3"/>
-    </row>
-    <row r="1000" spans="10:32" ht="12.75" customHeight="1">
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="4"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
-      <c r="AA1000" s="3"/>
-      <c r="AB1000" s="3"/>
-      <c r="AC1000" s="3"/>
-      <c r="AD1000" s="3"/>
-      <c r="AE1000" s="3"/>
-      <c r="AF1000" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Misc Data/past_experience_2019.xlsx
+++ b/Misc Data/past_experience_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amir/github/ceo/Misc Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB14FCA2-5F44-2043-B68A-96AC964DDF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1924FC4-EADD-3E4F-AF60-5E8FE4E7EC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="426">
   <si>
     <t>execid</t>
   </si>
@@ -1395,7 +1395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1431,6 +1431,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1648,16 +1651,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="8" width="8.83203125" customWidth="1"/>
@@ -1678,7 +1681,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1776,7 +1779,7 @@
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1825,7 +1828,7 @@
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1874,8 +1877,8 @@
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1">
-        <v>11264</v>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>38</v>
@@ -1928,7 +1931,7 @@
       <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1986,7 +1989,7 @@
       <c r="B6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2046,7 +2049,7 @@
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2102,7 +2105,7 @@
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2158,7 +2161,7 @@
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2216,7 +2219,7 @@
       <c r="B10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2266,7 +2269,7 @@
       <c r="B11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="19" t="s">
         <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2320,7 +2323,7 @@
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2369,7 +2372,7 @@
       <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="19" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2429,7 +2432,7 @@
       <c r="B14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2478,7 +2481,7 @@
       <c r="B15" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2527,7 +2530,7 @@
       <c r="B16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="19" t="s">
         <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2576,7 +2579,7 @@
       <c r="B17" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2634,7 +2637,7 @@
       <c r="B18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="19" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2683,7 +2686,7 @@
       <c r="B19" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2749,7 +2752,7 @@
       <c r="B20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="19" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2805,7 +2808,7 @@
       <c r="B21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2861,7 +2864,7 @@
       <c r="B22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2917,7 +2920,7 @@
       <c r="B23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="19" t="s">
         <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2969,7 +2972,7 @@
       <c r="B24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="19" t="s">
         <v>151</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3023,7 +3026,7 @@
       <c r="B25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3075,7 +3078,7 @@
       <c r="B26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3127,7 +3130,7 @@
       <c r="B27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="19" t="s">
         <v>167</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3183,7 +3186,7 @@
       <c r="B28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3260,7 +3263,7 @@
       <c r="B29" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="19" t="s">
         <v>180</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3316,7 +3319,7 @@
       <c r="B30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="19" t="s">
         <v>186</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3368,7 +3371,7 @@
       <c r="B31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="19" t="s">
         <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3420,7 +3423,7 @@
       <c r="B32" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3474,7 +3477,7 @@
       <c r="B33" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="19" t="s">
         <v>200</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3528,7 +3531,7 @@
       <c r="B34" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="19" t="s">
         <v>205</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3577,7 +3580,7 @@
       <c r="B35" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="19" t="s">
         <v>209</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3626,7 +3629,7 @@
       <c r="B36" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="19" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3682,7 +3685,7 @@
       <c r="B37" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="19" t="s">
         <v>220</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3757,7 +3760,7 @@
       <c r="B38" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="19" t="s">
         <v>226</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3811,7 +3814,7 @@
       <c r="B39" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="19" t="s">
         <v>230</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3860,7 +3863,7 @@
       <c r="B40" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="19" t="s">
         <v>234</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3916,7 +3919,7 @@
       <c r="B41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="19" t="s">
         <v>238</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3987,7 +3990,7 @@
       <c r="B42" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="19" t="s">
         <v>245</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -4041,7 +4044,7 @@
       <c r="B43" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="19" t="s">
         <v>249</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4089,7 +4092,7 @@
       <c r="B44" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="19" t="s">
         <v>253</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4141,7 +4144,7 @@
       <c r="B45" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="19" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4193,7 +4196,7 @@
       <c r="B46" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="19" t="s">
         <v>262</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4249,7 +4252,7 @@
       <c r="B47" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="19" t="s">
         <v>268</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -4298,7 +4301,7 @@
       <c r="B48" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="19" t="s">
         <v>272</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -4347,7 +4350,7 @@
       <c r="B49" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="19" t="s">
         <v>276</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -4396,7 +4399,7 @@
       <c r="B50" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="19" t="s">
         <v>280</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4468,7 +4471,7 @@
       <c r="B51" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="19" t="s">
         <v>286</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4517,7 +4520,7 @@
       <c r="B52" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="19" t="s">
         <v>290</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -4575,7 +4578,7 @@
       <c r="B53" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="19" t="s">
         <v>294</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4624,7 +4627,7 @@
       <c r="B54" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="19" t="s">
         <v>298</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4673,7 +4676,7 @@
       <c r="B55" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="19" t="s">
         <v>302</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4729,7 +4732,7 @@
       <c r="B56" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="19" t="s">
         <v>307</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4778,7 +4781,7 @@
       <c r="B57" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="19" t="s">
         <v>311</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4827,7 +4830,7 @@
       <c r="B58" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="19" t="s">
         <v>315</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4876,7 +4879,7 @@
       <c r="B59" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="19" t="s">
         <v>319</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4925,7 +4928,7 @@
       <c r="B60" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="19" t="s">
         <v>323</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4974,7 +4977,7 @@
       <c r="B61" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="19" t="s">
         <v>327</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -5028,7 +5031,7 @@
       <c r="B62" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="19" t="s">
         <v>333</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -5086,7 +5089,7 @@
       <c r="B63" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="19" t="s">
         <v>338</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -5142,7 +5145,7 @@
       <c r="B64" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="19" t="s">
         <v>345</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -5200,7 +5203,7 @@
       <c r="B65" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="19" t="s">
         <v>350</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -5254,7 +5257,7 @@
       <c r="B66" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="19" t="s">
         <v>355</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -5310,7 +5313,7 @@
       <c r="B67" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="19" t="s">
         <v>359</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -5376,7 +5379,7 @@
       <c r="B68" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="19" t="s">
         <v>365</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -5430,7 +5433,7 @@
       <c r="B69" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="19" t="s">
         <v>371</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5486,7 +5489,7 @@
       <c r="B70" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="19" t="s">
         <v>378</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -5542,7 +5545,7 @@
       <c r="B71" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="19" t="s">
         <v>383</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -5598,7 +5601,7 @@
       <c r="B72" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="19" t="s">
         <v>387</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -5654,7 +5657,7 @@
       <c r="B73" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="19" t="s">
         <v>394</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -5709,7 +5712,7 @@
       <c r="B74" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="19" t="s">
         <v>400</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -5775,7 +5778,7 @@
       <c r="B75" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="19" t="s">
         <v>406</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5831,7 +5834,7 @@
       <c r="B76" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="19" t="s">
         <v>410</v>
       </c>
       <c r="D76" s="1" t="s">

--- a/Misc Data/past_experience_2019.xlsx
+++ b/Misc Data/past_experience_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amir/github/ceo/Misc Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1924FC4-EADD-3E4F-AF60-5E8FE4E7EC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90BE2E6-3F25-1E44-B294-36A869C2F516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="424">
   <si>
     <t>execid</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Hewlett-Packard</t>
   </si>
   <si>
-    <t>026156</t>
-  </si>
-  <si>
     <t>Senior Vice President, Emerging Markets, Senior Vice President, Strategy and Corporate Development, and Chief of Staff to the Chairman and Chief Executive Officer. Mr. Humphries also served as Chief Financial Officer of HP Services.</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Accenture PLC</t>
   </si>
   <si>
-    <t>014357</t>
-  </si>
-  <si>
     <t>chief executive:operations, outsourcing</t>
   </si>
   <si>
@@ -1290,18 +1284,9 @@
     <t>012384</t>
   </si>
   <si>
-    <t>5188</t>
-  </si>
-  <si>
     <t>241637</t>
   </si>
   <si>
-    <t>063914</t>
-  </si>
-  <si>
-    <t>210418</t>
-  </si>
-  <si>
     <t>025648</t>
   </si>
   <si>
@@ -1312,6 +1297,15 @@
   </si>
   <si>
     <t>Ingersol</t>
+  </si>
+  <si>
+    <t>005606</t>
+  </si>
+  <si>
+    <t>295786</t>
+  </si>
+  <si>
+    <t>143357</t>
   </si>
 </sst>
 </file>
@@ -1651,9 +1645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1766,7 +1760,7 @@
         <v>26</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>27</v>
@@ -1956,7 +1950,7 @@
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="4" t="s">
-        <v>46</v>
+        <v>421</v>
       </c>
       <c r="P5" s="3">
         <v>2002</v>
@@ -1968,7 +1962,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
@@ -1984,16 +1978,16 @@
     </row>
     <row r="6" spans="1:32" ht="42" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E6" s="5">
         <v>2019</v>
@@ -2006,7 +2000,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="3">
         <v>1</v>
@@ -2026,7 +2020,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -2038,22 +2032,22 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32" ht="27.75" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E7" s="5">
         <v>2019</v>
@@ -2066,10 +2060,10 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2094,22 +2088,22 @@
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF7" s="3"/>
     </row>
     <row r="8" spans="1:32" ht="27.75" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E8" s="5">
         <v>2019</v>
@@ -2122,13 +2116,13 @@
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="4" t="s">
-        <v>65</v>
+        <v>423</v>
       </c>
       <c r="P8" s="3">
         <v>2014</v>
@@ -2140,7 +2134,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -2156,16 +2150,16 @@
     </row>
     <row r="9" spans="1:32" ht="84" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E9" s="5">
         <v>2019</v>
@@ -2177,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P9" s="3">
         <v>1995</v>
@@ -2198,7 +2192,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2214,16 +2208,16 @@
     </row>
     <row r="10" spans="1:32" ht="12.75" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E10" s="5">
         <v>2019</v>
@@ -2258,22 +2252,22 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32" ht="42" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="D11" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E11" s="5">
         <v>2019</v>
@@ -2286,13 +2280,13 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P11" s="3">
         <v>1995</v>
@@ -2318,16 +2312,16 @@
     </row>
     <row r="12" spans="1:32" ht="12.75" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E12" s="5">
         <v>2019</v>
@@ -2367,16 +2361,16 @@
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E13" s="5">
         <v>2019</v>
@@ -2389,7 +2383,7 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L13" s="3">
         <v>1</v>
@@ -2409,7 +2403,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2421,22 +2415,22 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF13" s="3"/>
     </row>
     <row r="14" spans="1:32" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E14" s="5">
         <v>2019</v>
@@ -2476,16 +2470,16 @@
     </row>
     <row r="15" spans="1:32" ht="12.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E15" s="5">
         <v>2019</v>
@@ -2525,16 +2519,16 @@
     </row>
     <row r="16" spans="1:32" ht="12.75" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E16" s="5">
         <v>2019</v>
@@ -2574,16 +2568,16 @@
     </row>
     <row r="17" spans="1:32" ht="28.5" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E17" s="5">
         <v>2019</v>
@@ -2596,7 +2590,7 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="13">
@@ -2604,7 +2598,7 @@
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P17" s="3">
         <v>2006</v>
@@ -2616,7 +2610,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -2632,16 +2626,16 @@
     </row>
     <row r="18" spans="1:32" ht="12.75" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E18" s="5">
         <v>2019</v>
@@ -2681,16 +2675,16 @@
     </row>
     <row r="19" spans="1:32" ht="42" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="D19" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E19" s="5">
         <v>2019</v>
@@ -2703,17 +2697,17 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3">
         <v>2082</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P19" s="3">
         <v>2012</v>
@@ -2725,13 +2719,13 @@
         <v>54619</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T19" s="3">
         <v>175000</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2747,16 +2741,16 @@
     </row>
     <row r="20" spans="1:32" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E20" s="5">
         <v>2019</v>
@@ -2769,13 +2763,13 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P20" s="3">
         <v>2006</v>
@@ -2787,7 +2781,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2803,16 +2797,16 @@
     </row>
     <row r="21" spans="1:32" ht="55.5" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E21" s="5">
         <v>2019</v>
@@ -2824,16 +2818,16 @@
         <v>1</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P21" s="3">
         <v>1998</v>
@@ -2859,16 +2853,16 @@
     </row>
     <row r="22" spans="1:32" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E22" s="5">
         <v>2019</v>
@@ -2881,13 +2875,13 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P22" s="3">
         <v>1989</v>
@@ -2899,7 +2893,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2915,16 +2909,16 @@
     </row>
     <row r="23" spans="1:32" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E23" s="5">
         <v>2019</v>
@@ -2937,18 +2931,14 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="6" t="s">
-        <v>146</v>
-      </c>
+      <c r="O23" s="6"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3">
-        <v>2012</v>
-      </c>
+      <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -2962,21 +2952,23 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
+      <c r="AE23" s="16" t="s">
+        <v>413</v>
+      </c>
       <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" ht="27.75" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E24" s="5">
         <v>2019</v>
@@ -2989,13 +2981,13 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
@@ -3005,7 +2997,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -3021,16 +3013,16 @@
     </row>
     <row r="25" spans="1:32" ht="42" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E25" s="5">
         <v>2019</v>
@@ -3043,13 +3035,13 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="15" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3">
@@ -3073,16 +3065,16 @@
     </row>
     <row r="26" spans="1:32" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E26" s="5">
         <v>2019</v>
@@ -3095,13 +3087,13 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3">
@@ -3125,16 +3117,16 @@
     </row>
     <row r="27" spans="1:32" ht="27.75" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E27" s="5">
         <v>2019</v>
@@ -3146,10 +3138,10 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L27" s="3">
         <v>1</v>
@@ -3175,22 +3167,22 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E28" s="5">
         <v>2019</v>
@@ -3203,17 +3195,17 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3">
         <v>3531</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3">
@@ -3224,13 +3216,13 @@
         <v>117186</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T28" s="3">
         <v>64645</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V28" s="12">
         <v>3531</v>
@@ -3258,16 +3250,16 @@
     </row>
     <row r="29" spans="1:32" ht="55.5" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E29" s="5">
         <v>2019</v>
@@ -3279,16 +3271,16 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="3">
@@ -3298,7 +3290,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -3314,16 +3306,16 @@
     </row>
     <row r="30" spans="1:32" ht="55.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E30" s="5">
         <v>2019</v>
@@ -3335,14 +3327,14 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3">
@@ -3366,16 +3358,16 @@
     </row>
     <row r="31" spans="1:32" ht="55.5" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E31" s="5">
         <v>2019</v>
@@ -3387,14 +3379,14 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3">
@@ -3418,16 +3410,16 @@
     </row>
     <row r="32" spans="1:32" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E32" s="5">
         <v>2019</v>
@@ -3440,13 +3432,13 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P32" s="3">
         <v>1978</v>
@@ -3472,16 +3464,16 @@
     </row>
     <row r="33" spans="1:32" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E33" s="5">
         <v>2019</v>
@@ -3494,13 +3486,13 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P33" s="3">
         <v>2011</v>
@@ -3526,16 +3518,16 @@
     </row>
     <row r="34" spans="1:32" ht="12.75" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E34" s="5">
         <v>2019</v>
@@ -3575,16 +3567,16 @@
     </row>
     <row r="35" spans="1:32" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E35" s="5">
         <v>2019</v>
@@ -3624,16 +3616,16 @@
     </row>
     <row r="36" spans="1:32" ht="42" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="E36" s="5">
         <v>2019</v>
@@ -3645,22 +3637,22 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P36" s="3">
         <v>1992</v>
       </c>
       <c r="Q36" s="3">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3680,16 +3672,16 @@
     </row>
     <row r="37" spans="1:32" ht="27.75" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E37" s="5">
         <v>2019</v>
@@ -3702,15 +3694,15 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P37" s="3">
         <v>2008</v>
@@ -3727,7 +3719,7 @@
         <v>147000</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V37" s="3">
         <v>3613</v>
@@ -3755,16 +3747,16 @@
     </row>
     <row r="38" spans="1:32" ht="55.5" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E38" s="5">
         <v>2019</v>
@@ -3776,14 +3768,14 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P38" s="3">
         <v>2001</v>
@@ -3809,16 +3801,16 @@
     </row>
     <row r="39" spans="1:32" ht="12.75" customHeight="1">
       <c r="A39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E39" s="5">
         <v>2019</v>
@@ -3858,16 +3850,16 @@
     </row>
     <row r="40" spans="1:32" ht="13.5" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E40" s="5">
         <v>2019</v>
@@ -3880,13 +3872,13 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P40" s="3">
         <v>2001</v>
@@ -3908,22 +3900,22 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AF40" s="3"/>
     </row>
     <row r="41" spans="1:32" ht="27.75" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="E41" s="5">
         <v>2019</v>
@@ -3936,15 +3928,15 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="P41" s="3">
         <v>1987</v>
@@ -3961,7 +3953,7 @@
         <v>94442</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="V41" s="3">
         <v>2834</v>
@@ -3985,16 +3977,16 @@
     </row>
     <row r="42" spans="1:32" ht="55.5" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E42" s="5">
         <v>2019</v>
@@ -4006,14 +3998,14 @@
         <v>1</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P42" s="3">
         <v>1973</v>
@@ -4039,16 +4031,16 @@
     </row>
     <row r="43" spans="1:32" ht="12.75" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="E43" s="5">
         <v>2019</v>
@@ -4081,22 +4073,22 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="13.5" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="E44" s="5">
         <v>2019</v>
@@ -4109,13 +4101,13 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3">
@@ -4139,16 +4131,16 @@
     </row>
     <row r="45" spans="1:32" ht="55.5" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="E45" s="5">
         <v>2019</v>
@@ -4160,14 +4152,14 @@
         <v>1</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3">
@@ -4191,16 +4183,16 @@
     </row>
     <row r="46" spans="1:32" ht="27.75" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="E46" s="5">
         <v>2019</v>
@@ -4213,13 +4205,13 @@
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P46" s="3">
         <v>1990</v>
@@ -4231,7 +4223,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -4247,16 +4239,16 @@
     </row>
     <row r="47" spans="1:32" ht="12.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E47" s="5">
         <v>2019</v>
@@ -4296,16 +4288,16 @@
     </row>
     <row r="48" spans="1:32" ht="12.75" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E48" s="5">
         <v>2019</v>
@@ -4345,16 +4337,16 @@
     </row>
     <row r="49" spans="1:32" ht="12.75" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E49" s="5">
         <v>2019</v>
@@ -4394,16 +4386,16 @@
     </row>
     <row r="50" spans="1:32" ht="27.75" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E50" s="5">
         <v>2019</v>
@@ -4416,15 +4408,15 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P50" s="3">
         <v>2013</v>
@@ -4438,7 +4430,7 @@
         <v>79000</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V50" s="3">
         <v>1311</v>
@@ -4466,16 +4458,16 @@
     </row>
     <row r="51" spans="1:32" ht="12.75" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E51" s="5">
         <v>2019</v>
@@ -4515,16 +4507,16 @@
     </row>
     <row r="52" spans="1:32" ht="27.75" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="E52" s="5">
         <v>2019</v>
@@ -4536,10 +4528,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K52" s="16" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3">
@@ -4547,13 +4539,11 @@
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2016</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="P52" s="3"/>
       <c r="Q52" s="3">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
@@ -4573,16 +4563,16 @@
     </row>
     <row r="53" spans="1:32" ht="12.75" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E53" s="5">
         <v>2019</v>
@@ -4622,16 +4612,16 @@
     </row>
     <row r="54" spans="1:32" ht="12.75" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E54" s="5">
         <v>2019</v>
@@ -4671,16 +4661,16 @@
     </row>
     <row r="55" spans="1:32" ht="55.5" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="E55" s="5">
         <v>2019</v>
@@ -4692,16 +4682,16 @@
         <v>1</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P55" s="3">
         <v>2001</v>
@@ -4727,16 +4717,16 @@
     </row>
     <row r="56" spans="1:32" ht="12.75" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E56" s="5">
         <v>2019</v>
@@ -4776,16 +4766,16 @@
     </row>
     <row r="57" spans="1:32" ht="12.75" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="E57" s="5">
         <v>2019</v>
@@ -4825,16 +4815,16 @@
     </row>
     <row r="58" spans="1:32" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="E58" s="5">
         <v>2019</v>
@@ -4874,16 +4864,16 @@
     </row>
     <row r="59" spans="1:32" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E59" s="5">
         <v>2019</v>
@@ -4923,16 +4913,16 @@
     </row>
     <row r="60" spans="1:32" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E60" s="5">
         <v>2019</v>
@@ -4972,16 +4962,16 @@
     </row>
     <row r="61" spans="1:32" ht="13.5" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E61" s="5">
         <v>2019</v>
@@ -4994,13 +4984,13 @@
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P61" s="3">
         <v>1983</v>
@@ -5026,16 +5016,16 @@
     </row>
     <row r="62" spans="1:32" ht="55.5" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="E62" s="5">
         <v>2019</v>
@@ -5047,16 +5037,16 @@
         <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P62" s="3">
         <v>1994</v>
@@ -5068,7 +5058,7 @@
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -5084,16 +5074,16 @@
     </row>
     <row r="63" spans="1:32" ht="27.75" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="E63" s="5">
         <v>2019</v>
@@ -5106,13 +5096,13 @@
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P63" s="3">
         <v>1993</v>
@@ -5124,7 +5114,7 @@
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
       <c r="U63" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -5140,16 +5130,16 @@
     </row>
     <row r="64" spans="1:32" ht="55.5" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E64" s="5">
         <v>2019</v>
@@ -5161,16 +5151,16 @@
         <v>1</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P64" s="3">
         <v>2004</v>
@@ -5182,7 +5172,7 @@
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
@@ -5198,16 +5188,16 @@
     </row>
     <row r="65" spans="1:32" ht="27.75" customHeight="1">
       <c r="A65" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="E65" s="5">
         <v>2019</v>
@@ -5220,13 +5210,13 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P65" s="3">
         <v>1998</v>
@@ -5252,16 +5242,16 @@
     </row>
     <row r="66" spans="1:32" ht="55.5" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="E66" s="5">
         <v>2019</v>
@@ -5273,16 +5263,16 @@
         <v>1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="15" t="s">
-        <v>418</v>
+      <c r="O66" s="19" t="s">
+        <v>353</v>
       </c>
       <c r="P66" s="3">
         <v>1997</v>
@@ -5308,16 +5298,16 @@
     </row>
     <row r="67" spans="1:32" ht="27.75" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="E67" s="5">
         <v>2019</v>
@@ -5330,15 +5320,15 @@
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P67" s="3">
         <v>2003</v>
@@ -5354,7 +5344,7 @@
         <v>117809</v>
       </c>
       <c r="U67" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="V67" s="3">
         <v>2834</v>
@@ -5374,16 +5364,16 @@
     </row>
     <row r="68" spans="1:32" ht="42" customHeight="1">
       <c r="A68" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E68" s="5">
         <v>2019</v>
@@ -5396,13 +5386,13 @@
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P68" s="3">
         <v>1991</v>
@@ -5428,16 +5418,16 @@
     </row>
     <row r="69" spans="1:32" ht="27.75" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="E69" s="5">
         <v>2019</v>
@@ -5450,13 +5440,13 @@
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P69" s="3">
         <v>2011</v>
@@ -5468,7 +5458,7 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
       <c r="U69" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -5484,16 +5474,16 @@
     </row>
     <row r="70" spans="1:32" ht="55.5" customHeight="1">
       <c r="A70" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="E70" s="5">
         <v>2019</v>
@@ -5505,14 +5495,14 @@
         <v>1</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P70" s="3">
         <v>1998</v>
@@ -5524,7 +5514,7 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -5540,16 +5530,16 @@
     </row>
     <row r="71" spans="1:32" ht="13.5" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C71" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="E71" s="5">
         <v>2019</v>
@@ -5562,13 +5552,13 @@
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P71" s="3">
         <v>1987</v>
@@ -5580,7 +5570,7 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
       <c r="U71" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
@@ -5596,16 +5586,16 @@
     </row>
     <row r="72" spans="1:32" ht="13.5" customHeight="1">
       <c r="A72" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="E72" s="5">
         <v>2019</v>
@@ -5618,13 +5608,13 @@
       </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P72" s="3">
         <v>2010</v>
@@ -5636,7 +5626,7 @@
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
@@ -5652,16 +5642,16 @@
     </row>
     <row r="73" spans="1:32" ht="27.75" customHeight="1">
       <c r="A73" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="E73" s="5">
         <v>2019</v>
@@ -5675,13 +5665,13 @@
       </c>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P73" s="3">
         <v>1992</v>
@@ -5707,16 +5697,16 @@
     </row>
     <row r="74" spans="1:32" ht="27.75" customHeight="1">
       <c r="A74" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="E74" s="5">
         <v>2019</v>
@@ -5729,7 +5719,7 @@
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3">
@@ -5737,7 +5727,7 @@
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="15" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="P74" s="3">
         <v>1997</v>
@@ -5753,7 +5743,7 @@
         <v>546</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="V74" s="3">
         <v>6798</v>
@@ -5773,16 +5763,16 @@
     </row>
     <row r="75" spans="1:32" ht="55.5" customHeight="1">
       <c r="A75" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="E75" s="5">
         <v>2019</v>
@@ -5794,22 +5784,22 @@
         <v>1</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P75" s="3">
         <v>1976</v>
       </c>
       <c r="Q75" s="3">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
@@ -5829,16 +5819,16 @@
     </row>
     <row r="76" spans="1:32" ht="55.5" customHeight="1">
       <c r="A76" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="E76" s="5">
         <v>2019</v>
@@ -5850,14 +5840,14 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P76" s="3">
         <v>1998</v>
